--- a/dades/5S1.xlsx
+++ b/dades/5S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA11558-42F3-4670-816F-995026883032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7177BFA-998C-4104-84BB-153206991B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294:D357"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298:C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5936,7 +5936,7 @@
         <v>0.28349537037037037</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D295" t="s">
         <v>100</v>
@@ -5953,7 +5953,7 @@
         <v>0.2872453703703704</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D296" t="s">
         <v>100</v>
@@ -5970,7 +5970,7 @@
         <v>0.29206018518518517</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D297" t="s">
         <v>100</v>
@@ -6004,7 +6004,7 @@
         <v>0.31729166666666669</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D299" t="s">
         <v>100</v>
@@ -6021,7 +6021,7 @@
         <v>0.32103009259259258</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D300" t="s">
         <v>100</v>
@@ -6038,7 +6038,7 @@
         <v>0.32343749999999999</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D301" t="s">
         <v>100</v>
